--- a/data/trans_dic/P23_DUKE_AC_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_AC_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social confidencial bajo</t>
+          <t>Población que recibe apoyo social confidencial bajo (tasa de respuesta: 96,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>70,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>75,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>62,44%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>74,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>77,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>64,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>62,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>63,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>74,42%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>69,61%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>62,59%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>68,83%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 19,4</t>
+          <t>51,66; 84,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 18,57</t>
+          <t>57,34; 89,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,82</t>
+          <t>44,84; 80,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 13,18</t>
+          <t>55,47; 88,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 19,13</t>
+          <t>64,28; 88,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 21,93</t>
+          <t>50,13; 78,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 12,82</t>
+          <t>47,97; 76,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,41; 15,54</t>
+          <t>47,48; 76,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 13,54</t>
+          <t>64,27; 82,93</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>58,8; 79,97</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>49,76; 73,1</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>57,88; 77,91</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>61,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>79,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>75,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>87,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>78,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>79,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>74,45%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>83,46%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>81,35%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>77,56%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 40,0</t>
+          <t>34,75; 79,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 29,99</t>
+          <t>62,13; 90,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 47,17</t>
+          <t>68,87; 93,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,02; 21,43</t>
+          <t>56,4; 90,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 15,81</t>
+          <t>75,86; 94,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 17,64</t>
+          <t>74,71; 94,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 28,18</t>
+          <t>65,64; 89,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 20,71</t>
+          <t>65,57; 89,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 35,46</t>
+          <t>57,31; 84,95</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>74,69; 90,59</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>71,47; 88,58</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>67,85; 88,01</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>80,03%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>83,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>85,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>83,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>84,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>82,08%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>82,77%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>89,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>85,45%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>82,57%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 43,47</t>
+          <t>65,46; 89,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,81; 38,76</t>
+          <t>71,63; 91,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,41; 30,5</t>
+          <t>75,21; 92,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 17,85</t>
+          <t>71,37; 91,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 17,25</t>
+          <t>75,77; 90,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,41; 28,21</t>
+          <t>86,02; 97,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,3; 27,05</t>
+          <t>77,31; 91,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,51; 26,24</t>
+          <t>74,07; 88,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,41; 27,3</t>
+          <t>76,04; 88,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>83,53; 93,62</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>79,19; 90,23</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>76,02; 88,04</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>80,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>82,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>81,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>86,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>83,68%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>88,11%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>86,3%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>88,6%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 16,69</t>
+          <t>69,94; 88,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,15; 26,02</t>
+          <t>72,41; 90,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,63; 25,77</t>
+          <t>71,21; 89,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 26,71</t>
+          <t>81,45; 95,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,66; 28,78</t>
+          <t>79,51; 92,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,24; 30,04</t>
+          <t>85,28; 96,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,83; 20,65</t>
+          <t>83,38; 95,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 25,28</t>
+          <t>78,72; 93,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,21; 26,22</t>
+          <t>77,26; 88,67</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>82,37; 92,43</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>80,09; 90,98</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>82,61; 92,58</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>71,75%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>88,9%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>90,1%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>83,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>80,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>87,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>81,4%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>75,3%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>88,39%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>86,4%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>86,7%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,93; 27,76</t>
+          <t>59,42; 82,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,6; 29,42</t>
+          <t>77,69; 94,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,85; 31,44</t>
+          <t>79,87; 95,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,4; 26,53</t>
+          <t>73,32; 91,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,78; 26,98</t>
+          <t>66,02; 89,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,13; 32,51</t>
+          <t>76,49; 94,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,79; 25,42</t>
+          <t>67,82; 91,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,76; 24,46</t>
+          <t>77,98; 96,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,24; 27,71</t>
+          <t>66,4; 82,8</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>80,74; 93,49</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>79,66; 91,83</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>79,23; 91,9</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>78,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>79,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>72,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>89,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>80,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>74,9%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>92,69%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>79,97%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>86,32%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,83; 26,2</t>
+          <t>62,56; 89,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,98; 21,44</t>
+          <t>83,81; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,67; 27,2</t>
+          <t>63,55; 91,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,84; 34,82</t>
+          <t>63,51; 93,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,75; 27,42</t>
+          <t>55,96; 85,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,88; 64,1</t>
+          <t>75,64; 97,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,48; 28,25</t>
+          <t>62,72; 91,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,68; 22,48</t>
+          <t>74,71; 95,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,47; 50,14</t>
+          <t>64,41; 84,35</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>84,47; 97,3</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>69,31; 89,16</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>76,31; 93,16</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>73,55%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>83,31%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>80,56%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>80,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>82,05%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>78,44%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>85,33%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>80,74%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>81,84%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,71; 21,48</t>
+          <t>66,22; 79,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,23; 21,2</t>
+          <t>78,12; 87,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,02; 22,81</t>
+          <t>75,25; 85,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,27; 18,22</t>
+          <t>75,72; 86,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,66; 17,32</t>
+          <t>78,38; 86,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,5; 29,17</t>
+          <t>83,06; 90,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,75; 18,15</t>
+          <t>76,09; 84,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,81; 17,67</t>
+          <t>77,65; 85,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,64; 23,79</t>
+          <t>74,33; 81,91</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>82,14; 87,87</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>77,0; 83,58</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>77,9; 84,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social confidencial bajo (tasa de respuesta: 96,76%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>75937</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>74198</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>76156</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>103060</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>103440</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>75095</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>76875</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>92856</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>179377</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>149293</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>153030</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>195914</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>55293; 90250</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>56637; 88167</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>54694; 97813</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>77190; 123280</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>86136; 118194</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>58002; 90914</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>58775; 93352</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>69077; 111635</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>154902; 199893</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>126113; 171512</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>121648; 178722</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>164752; 221774</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>103364</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>107679</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>128830</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>172750</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>141443</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>108527</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>99419</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>129799</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>244808</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>216207</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>228249</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>302549</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>58639; 133965</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>83716; 122249</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>106250; 144033</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>128413; 205456</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>121454; 151169</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>92862; 117337</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>82913; 112678</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>106474; 146128</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>188454; 279362</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>193481; 234665</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>200530; 248536</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>264671; 343283</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>124641</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>105974</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>115938</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>142918</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>222819</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>190974</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>193272</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>347459</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>296949</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>283645</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>336189</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>101941; 138866</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>91403; 117260</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>101787; 125578</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>122539; 157434</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>200074; 238167</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>176247; 199001</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>151989; 179318</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>174413; 208359</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>319213; 370306</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>277721; 311297</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>262862; 299515</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>309545; 358469</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>143456</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>117507</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>117731</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>163174</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>184111</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>162275</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>146992</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>177715</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>327568</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>279782</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>264723</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>340890</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>125396; 157861</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>103054; 128103</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>103433; 129560</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>146896; 171353</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>168682; 195462</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>149444; 169807</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>134663; 154503</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>160908; 190414</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>302424; 347109</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>261562; 293513</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>245694; 279094</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>317860; 356202</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>106822</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>89635</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>103298</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>120173</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>87779</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>74345</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>68900</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>110915</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>194601</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>163980</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>172198</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>231089</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>88468; 123158</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>78331; 95681</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>91572; 109944</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>105138; 131395</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>72329; 98000</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>64790; 79846</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>57405; 77358</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>96012; 118782</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>171603; 214003</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>149788; 173458</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>158768; 183023</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>211165; 244937</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>78698</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>60259</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>60243</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>88183</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>85384</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>76153</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>80599</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>138829</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>164081</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>136412</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>140841</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>227011</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>63098; 90427</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>52163; 62238</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>48340; 69306</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>67307; 99541</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>66146; 101293</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>64248; 82582</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>62749; 92005</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>117304; 150428</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>141105; 184778</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>124318; 143204</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>122069; 157029</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>200683; 245012</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>542.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>555.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>543.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>632917</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>555252</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>602196</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>790257</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>824977</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>687370</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>640492</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>843385</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1457894</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1242622</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1242687</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1633642</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>569881; 681692</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>520658; 584726</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>562570; 636843</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>733153; 833658</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>782360; 861142</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>655983; 713537</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>602333; 670140</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>798177; 881774</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1381470; 1522393</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1196137; 1279670</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1185228; 1286471</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1555103; 1691649</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>